--- a/metadata/Steginoporella_magnifica_SEM_18.06.24.xlsx
+++ b/metadata/Steginoporella_magnifica_SEM_18.06.24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/bryo_metadata/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB8F04-3E42-C945-8998-164562081AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A1635-2EB2-2A41-BC58-EBDEB1BEE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="22280" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3707,7 +3707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3726,10 +3726,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4108,8 +4104,8 @@
   <dimension ref="A1:M870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L869" sqref="L869"/>
+      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L832" sqref="L832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27490,41 +27486,41 @@
         <v>56</v>
       </c>
     </row>
-    <row r="689" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A689" s="10" t="s">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A689" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B689" s="11" t="s">
+      <c r="B689" t="s">
         <v>147</v>
       </c>
-      <c r="C689" s="11">
-        <v>2</v>
-      </c>
-      <c r="D689" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E689" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F689" s="11" t="s">
+      <c r="C689">
+        <v>2</v>
+      </c>
+      <c r="D689" t="s">
+        <v>11</v>
+      </c>
+      <c r="E689" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" t="s">
         <v>142</v>
       </c>
-      <c r="G689" s="11" t="s">
-        <v>996</v>
-      </c>
-      <c r="I689" s="11">
+      <c r="G689" t="s">
+        <v>996</v>
+      </c>
+      <c r="I689">
         <v>9.1750000000000007</v>
       </c>
-      <c r="J689" s="11" t="s">
+      <c r="J689" t="s">
         <v>999</v>
       </c>
-      <c r="K689" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L689" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M689" s="11" t="s">
+      <c r="K689" t="s">
+        <v>18</v>
+      </c>
+      <c r="L689" t="s">
+        <v>56</v>
+      </c>
+      <c r="M689" t="s">
         <v>1053</v>
       </c>
     </row>

--- a/metadata/Steginoporella_magnifica_SEM_18.06.24.xlsx
+++ b/metadata/Steginoporella_magnifica_SEM_18.06.24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/bryo_metadata/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A1635-2EB2-2A41-BC58-EBDEB1BEE0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B0C62-02F3-CD41-A4FB-D464BBA8A111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="22280" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="1060">
   <si>
     <t>DATE</t>
   </si>
@@ -3196,6 +3196,24 @@
   </si>
   <si>
     <t>also has date 8/13/18</t>
+  </si>
+  <si>
+    <t>1223F</t>
+  </si>
+  <si>
+    <t>1224CV</t>
+  </si>
+  <si>
+    <t>1225CV</t>
+  </si>
+  <si>
+    <t>1226CV</t>
+  </si>
+  <si>
+    <t>1227CV</t>
+  </si>
+  <si>
+    <t>TS-10</t>
   </si>
 </sst>
 </file>
@@ -3707,7 +3725,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3725,6 +3743,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4101,11 +4122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M870"/>
+  <dimension ref="A1:M874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A814" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L832" sqref="L832"/>
+      <pane ySplit="1" topLeftCell="A845" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L877" sqref="L877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33552,7 +33573,152 @@
       </c>
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A870" s="1"/>
+      <c r="A870" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C870">
+        <v>2</v>
+      </c>
+      <c r="D870" t="s">
+        <v>11</v>
+      </c>
+      <c r="E870" t="s">
+        <v>12</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G870" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K870" t="s">
+        <v>18</v>
+      </c>
+      <c r="L870" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C871">
+        <v>2</v>
+      </c>
+      <c r="D871" t="s">
+        <v>11</v>
+      </c>
+      <c r="E871" t="s">
+        <v>12</v>
+      </c>
+      <c r="F871" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="G871" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H871" s="4"/>
+      <c r="I871" s="4"/>
+      <c r="J871" s="4"/>
+      <c r="K871" t="s">
+        <v>18</v>
+      </c>
+      <c r="L871" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C872">
+        <v>2</v>
+      </c>
+      <c r="D872" t="s">
+        <v>11</v>
+      </c>
+      <c r="E872" t="s">
+        <v>12</v>
+      </c>
+      <c r="F872" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="G872" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K872" t="s">
+        <v>18</v>
+      </c>
+      <c r="L872" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+      <c r="D873" t="s">
+        <v>11</v>
+      </c>
+      <c r="E873" t="s">
+        <v>128</v>
+      </c>
+      <c r="F873" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="G873" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K873" t="s">
+        <v>18</v>
+      </c>
+      <c r="L873" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C874">
+        <v>2</v>
+      </c>
+      <c r="D874" t="s">
+        <v>11</v>
+      </c>
+      <c r="E874" t="s">
+        <v>12</v>
+      </c>
+      <c r="F874" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="G874" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K874" t="s">
+        <v>18</v>
+      </c>
+      <c r="L874" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M805">
